--- a/xlsx/平等_intext.xlsx
+++ b/xlsx/平等_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_平等</t>
+    <t>平等原则</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>機會平等</t>
+    <t>机会平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E4%B9%8B%E5%89%8D%E4%BA%BA%E4%BA%BA%E5%B9%B3%E7%AD%89</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>性別平等</t>
+    <t>性别平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E6%96%BC</t>
   </si>
   <si>
-    <t>等於</t>
+    <t>等于</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%AD%89</t>
